--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Tên học viên</t>
   </si>
@@ -111,13 +111,25 @@
   </si>
   <si>
     <t>Bảo Châu</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh Hương</t>
+  </si>
+  <si>
+    <t>Thanh Hương</t>
+  </si>
+  <si>
+    <t>Anh Phong</t>
+  </si>
+  <si>
+    <t>Tạ Minh Châu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +140,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,13 +199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -469,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +692,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1584000</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1580000</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tháng 11" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Tên học viên</t>
   </si>
@@ -123,13 +124,82 @@
   </si>
   <si>
     <t>Tạ Minh Châu</t>
+  </si>
+  <si>
+    <t>Học phí</t>
+  </si>
+  <si>
+    <t>Kênh tư vấn</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc My Ny</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Linh</t>
+  </si>
+  <si>
+    <t>Phan Thị Quỳnh Liên</t>
+  </si>
+  <si>
+    <t>Phạm Thị Diệu Phương</t>
+  </si>
+  <si>
+    <t>Lê Châu Anh Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh Nhi</t>
+  </si>
+  <si>
+    <t>Cái Hoàng Mai</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Khánh Nhi</t>
+  </si>
+  <si>
+    <t>FB fanpage</t>
+  </si>
+  <si>
+    <t>fb cá nhân</t>
+  </si>
+  <si>
+    <t>A-&gt;B</t>
+  </si>
+  <si>
+    <t>Hậu</t>
+  </si>
+  <si>
+    <t>Phong</t>
+  </si>
+  <si>
+    <t>Ngày tư vấn</t>
+  </si>
+  <si>
+    <t>13/11/2017</t>
+  </si>
+  <si>
+    <t>18/11/2017</t>
+  </si>
+  <si>
+    <t>29/11/2017</t>
+  </si>
+  <si>
+    <t>30/11/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +220,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -207,6 +291,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -490,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +606,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -719,6 +822,253 @@
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1680000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1680000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -833,7 +833,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="12">
-        <v>1680000</v>
+        <v>1560000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -1052,7 +1052,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="12">
-        <v>1680000</v>
+        <v>1560000</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>

--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 11" sheetId="2" r:id="rId2"/>
+    <sheet name="Tháng 12" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Tên học viên</t>
   </si>
@@ -193,6 +194,24 @@
   </si>
   <si>
     <t>30/11/2017</t>
+  </si>
+  <si>
+    <t>Châu Hồ Bích Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Uyển Thư</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Phương</t>
+  </si>
+  <si>
+    <t>16/12/2017</t>
+  </si>
+  <si>
+    <t>Học viên cũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Học viên cũ </t>
   </si>
 </sst>
 </file>
@@ -283,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -308,6 +327,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,4 +1095,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1680000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1680000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="14">
+        <v>43051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1470000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1680000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1440000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -855,7 +855,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
